--- a/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E55A6-192F-4178-9E87-8E1E1DFA4731}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48948A-01AE-4045-AEEC-E2A081E9CDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム画面" sheetId="1" r:id="rId1"/>
@@ -3277,8 +3277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3228320" y="1513951"/>
-          <a:ext cx="3596828" cy="4890913"/>
+          <a:off x="3245783" y="1507777"/>
+          <a:ext cx="3621522" cy="4867983"/>
           <a:chOff x="1444509" y="758418"/>
           <a:chExt cx="2407626" cy="3752935"/>
         </a:xfrm>
@@ -18358,8 +18358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8777FBF-4B33-4F90-9B60-7C5C113776BD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21772,7 +21772,7 @@
       <c r="J82" s="16"/>
       <c r="K82" s="18"/>
       <c r="L82" s="15" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="M82" s="16"/>
       <c r="N82" s="18"/>
@@ -21826,7 +21826,7 @@
       <c r="J83" s="16"/>
       <c r="K83" s="18"/>
       <c r="L83" s="15" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="M83" s="16"/>
       <c r="N83" s="18"/>
@@ -21884,7 +21884,7 @@
       <c r="J84" s="16"/>
       <c r="K84" s="18"/>
       <c r="L84" s="15" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M84" s="16"/>
       <c r="N84" s="18"/>
@@ -21934,7 +21934,7 @@
       <c r="J85" s="16"/>
       <c r="K85" s="18"/>
       <c r="L85" s="15" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="M85" s="16"/>
       <c r="N85" s="18"/>
@@ -23003,7 +23003,8 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27629,7 +27630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2421CFF-92DD-4706-BEA2-D3AEF421D625}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AN1"/>
     </sheetView>
   </sheetViews>

--- a/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48948A-01AE-4045-AEEC-E2A081E9CDF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BBAB1-06D0-4A13-ACEA-DD3DD5B7A409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム画面" sheetId="1" r:id="rId1"/>
@@ -18358,7 +18358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8777FBF-4B33-4F90-9B60-7C5C113776BD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
@@ -27630,7 +27630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2421CFF-92DD-4706-BEA2-D3AEF421D625}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AN1"/>
     </sheetView>
   </sheetViews>
@@ -51263,7 +51263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD9CDE-B0AF-4A74-A016-9E36BF4AA4CE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AN1"/>
     </sheetView>
   </sheetViews>
@@ -55939,8 +55939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1823AB34-842F-439E-B411-03D080D3A58C}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN1"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59457,7 +59457,7 @@
       <c r="J84" s="16"/>
       <c r="K84" s="18"/>
       <c r="L84" s="15" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="M84" s="16"/>
       <c r="N84" s="18"/>
@@ -60582,6 +60582,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_外部設計書（完成版）_メガネのやばいシステム屋さん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BBAB1-06D0-4A13-ACEA-DD3DD5B7A409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C833C105-6B14-4FDA-9E56-9407D5BA1233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{BA4FDB4E-1BCF-4FEE-9581-631289D51D57}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム画面" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="296">
   <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
@@ -2633,6 +2633,35 @@
   <si>
     <t>users</t>
   </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3'.ID,PW,PWチェック,駅検索ボタンが入力されていなかったとき→「すべて入力してください」</t>
+    <rPh sb="16" eb="19">
+      <t>エキケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2641,7 +2670,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2706,6 +2735,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3029,7 +3072,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3170,6 +3213,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3277,8 +3322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3245783" y="1507777"/>
-          <a:ext cx="3621522" cy="4867983"/>
+          <a:off x="3208964" y="1519306"/>
+          <a:ext cx="3575406" cy="4910805"/>
           <a:chOff x="1444509" y="758418"/>
           <a:chExt cx="2407626" cy="3752935"/>
         </a:xfrm>
@@ -18358,7 +18403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8777FBF-4B33-4F90-9B60-7C5C113776BD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
@@ -27630,7 +27675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2421CFF-92DD-4706-BEA2-D3AEF421D625}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AN1"/>
     </sheetView>
   </sheetViews>
@@ -46633,8 +46678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CE08CB-19BA-4A28-8009-F36C652AA3EE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN1"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -51263,8 +51308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FD9CDE-B0AF-4A74-A016-9E36BF4AA4CE}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -53577,7 +53622,10 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="51" t="s">
         <v>248</v>
       </c>
       <c r="F57" s="8"/>
@@ -53619,7 +53667,10 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="51" t="s">
         <v>249</v>
       </c>
       <c r="F58" s="8"/>
@@ -53661,7 +53712,7 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="50" t="s">
         <v>250</v>
       </c>
       <c r="F59" s="8"/>
@@ -53703,8 +53754,11 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="E60" s="1" t="s">
-        <v>251</v>
+      <c r="D60" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>293</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -53745,8 +53799,8 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="1" t="s">
-        <v>252</v>
+      <c r="E61" s="50" t="s">
+        <v>251</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -53787,6 +53841,12 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
+      <c r="D62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -55931,7 +55991,8 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
